--- a/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DA980-394C-454B-9782-B0AFE5A764E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="61125" yWindow="2670" windowWidth="26850" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
-    <sheet name="Common" sheetId="3" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="OpenNGS.Quest.Common" sheetId="3" r:id="rId2"/>
+    <sheet name="OpenNGS.Quest.Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
   <si>
     <t>Package</t>
   </si>
@@ -58,9 +51,6 @@
     <t>TableType</t>
   </si>
   <si>
-    <t>OpenNGS.Quest</t>
-  </si>
-  <si>
     <t>QuestGroup</t>
   </si>
   <si>
@@ -116,6 +106,18 @@
   </si>
   <si>
     <t>任务的存档数据</t>
+  </si>
+  <si>
+    <t>QuestData</t>
+  </si>
+  <si>
+    <t>任务存档</t>
+  </si>
+  <si>
+    <t>QuestGroupData</t>
+  </si>
+  <si>
+    <t>任务组存档</t>
   </si>
   <si>
     <t>Tag</t>
@@ -336,27 +338,60 @@
     <t>奖励系统ID</t>
   </si>
   <si>
+    <t>QuestData[]</t>
+  </si>
+  <si>
+    <t>任务组任务集合</t>
+  </si>
+  <si>
     <t>QuestList</t>
   </si>
   <si>
-    <t>QuestGroup[]</t>
+    <t>QuestGroupData[]</t>
   </si>
   <si>
     <t>任务数据列表</t>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenNGS.Quest.Data</t>
+  </si>
+  <si>
+    <t>OpenNGS.Quest.Data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OpenNGS.Quest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.Common</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,14 +419,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -400,148 +435,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -549,202 +446,36 @@
       <name val="Source Han Sans CN"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -777,266 +508,68 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1046,100 +579,519 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
         <scheme val="none"/>
-        <family val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Times New Roman"/>
+        <charset val="134"/>
         <scheme val="none"/>
-        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1160,15 +1112,15 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1189,15 +1141,15 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1218,16 +1170,15 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1248,15 +1199,16 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1277,15 +1229,15 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1306,15 +1258,15 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1335,15 +1287,15 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1364,291 +1316,50 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FF000000" tint="0.59999389629810485"/>
+          <bgColor rgb="FF000000" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.599993896298105"/>
-          <bgColor rgb="FF000000" tint="0.599993896298105"/>
+          <fgColor rgb="FF000000" tint="0.59999389629810485"/>
+          <bgColor rgb="FF000000" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.599993896298105"/>
-          <bgColor rgb="FF000000" tint="0.599993896298105"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+      <font>
+        <b/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1660,7 +1371,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1672,13 +1383,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799981688894314"/>
-          <bgColor rgb="FF000000" tint="0.799981688894314"/>
+          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
+          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
       <border>
@@ -1691,7 +1402,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1712,8 +1423,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799981688894314"/>
-          <bgColor rgb="FF000000" tint="0.799981688894314"/>
+          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
+          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
       <border>
@@ -1728,126 +1439,159 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset4_Dark" pivot="0" count="7" xr9:uid="{A81DCE68-96CC-47DE-8847-DD6B0B4E8B69}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="totalRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
-      <tableStyleElement type="lastColumn" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="48"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="totalRow" dxfId="46"/>
+      <tableStyleElement type="firstColumn" dxfId="45"/>
+      <tableStyleElement type="lastColumn" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Package" dataDxfId="0"/>
-    <tableColumn id="2" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" name="Group" dataDxfId="2"/>
-    <tableColumn id="4" name="Type" dataDxfId="3"/>
-    <tableColumn id="5" name="Description" dataDxfId="4"/>
-    <tableColumn id="6" name="Scope" dataDxfId="5"/>
-    <tableColumn id="7" name="PK" dataDxfId="6"/>
-    <tableColumn id="8" name="SK" dataDxfId="7"/>
-    <tableColumn id="9" name="TableType" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Group" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SK" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TableType" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QUEST_CATEGORY" displayName="QUEST_CATEGORY" ref="A3:F8" totalsRowShown="0">
-  <autoFilter ref="A3:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="QUEST_CATEGORY" displayName="QUEST_CATEGORY" ref="A3:F8" totalsRowShown="0">
+  <autoFilter ref="A3:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" name="Tag" dataDxfId="12"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="13"/>
-    <tableColumn id="6" name="Scope" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tag" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Attributes" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Scope" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QUEST_STATUS" displayName="QUEST_STATUS" ref="A11:F16" totalsRowShown="0">
-  <autoFilter ref="A11:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="QUEST_STATUS" displayName="QUEST_STATUS" ref="A11:F16" totalsRowShown="0">
+  <autoFilter ref="A11:F16" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Tag"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tag"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Attributes"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QUEST_PICK_RULE" displayName="QUEST_PICK_RULE" ref="A19:F23" totalsRowShown="0">
-  <autoFilter ref="A19:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="QUEST_PICK_RULE" displayName="QUEST_PICK_RULE" ref="A19:F23" totalsRowShown="0">
+  <autoFilter ref="A19:F23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" name="Type" dataDxfId="16"/>
-    <tableColumn id="3" name="Description" dataDxfId="17"/>
-    <tableColumn id="4" name="Tag" dataDxfId="18"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="19"/>
-    <tableColumn id="6" name="Scope" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Type" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tag" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attributes" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Scope" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quest" displayName="Quest" ref="A17:F28" totalsRowShown="0">
-  <autoFilter ref="A17:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Quest" displayName="Quest" ref="A17:F28" totalsRowShown="0">
+  <autoFilter ref="A17:F28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Tag"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tag"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Attributes"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QuestGroup" displayName="QuestGroup" ref="A3:F14" totalsRowShown="0">
-  <autoFilter ref="A3:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="QuestGroup" displayName="QuestGroup" ref="A3:F14" totalsRowShown="0">
+  <autoFilter ref="A3:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Tag"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tag"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Attributes"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QuestContainer" displayName="QuestContainer" ref="A31:F32" totalsRowShown="0">
-  <autoFilter ref="A31:F32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="QuestContainer" displayName="QuestContainer" ref="A41:F42" totalsRowShown="0">
+  <autoFilter ref="A41:F42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" name="Type" dataDxfId="23"/>
-    <tableColumn id="3" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" name="Tag" dataDxfId="25"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tag" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Attributes"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Scope" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="QuestData" displayName="QuestData" ref="A31:F33" totalsRowShown="0">
+  <autoFilter ref="A31:F33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tag" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Attributes" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Scope" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="QuestGroupData" displayName="QuestGroupData" ref="A36:F38" totalsRowShown="0">
+  <autoFilter ref="A36:F38" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Type" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tag" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Attributes" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Scope" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2105,32 +1849,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.41666666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5833333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.41666666666667" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.91666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.4140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.9140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="13" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.91666666666667" style="6"/>
+    <col min="10" max="16384" width="8.9140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2159,160 +1903,210 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:9">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:9">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16">
+      <c r="A9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2320,31 +2114,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="46.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.58333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7.41666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.4166666666667" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" style="6" customWidth="1"/>
-    <col min="7" max="9" width="8.91666666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="46.9140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.4140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="6" customWidth="1"/>
+    <col min="7" max="9" width="8.9140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.91666666666667" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.91666666666667" style="6"/>
+    <col min="11" max="11" width="8.9140625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.9140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2354,7 +2147,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2365,10 +2158,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -2376,109 +2169,109 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -2488,9 +2281,9 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2500,7 +2293,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" ht="14.25" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2511,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -2522,109 +2315,109 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" ht="14.25" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" ht="14.25" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" ht="14.25" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -2634,9 +2427,9 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" ht="14.25" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2646,7 +2439,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" ht="14.25" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -2657,10 +2450,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>5</v>
@@ -2668,87 +2461,87 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" ht="14.25" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" ht="14.25" spans="1:8">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" ht="14.25" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" ht="14.25" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" ht="14.25" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2757,7 +2550,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" ht="14.25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2766,7 +2559,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" ht="14.25" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2775,7 +2568,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" ht="14.25" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2784,7 +2577,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" ht="14.25" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2794,18 +2587,18 @@
       <c r="G28"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D23">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2815,27 +2608,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="25.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2854,10 +2646,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -2865,58 +2657,58 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2924,143 +2716,143 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3073,7 +2865,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3092,10 +2884,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5</v>
@@ -3103,22 +2895,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3126,17 +2918,17 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3144,166 +2936,166 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4">
         <v>7</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
         <v>8</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D26" s="4">
         <v>9</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4">
         <v>11</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3322,10 +3114,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3333,33 +3125,187 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D18:D28">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DA980-394C-454B-9782-B0AFE5A764E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61125" yWindow="2670" windowWidth="26850" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
     <sheet name="OpenNGS.Quest.Common" sheetId="3" r:id="rId2"/>
     <sheet name="OpenNGS.Quest.Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
   <si>
     <t>Package</t>
   </si>
@@ -51,6 +58,9 @@
     <t>TableType</t>
   </si>
   <si>
+    <t>OpenNGS.Quest.Data</t>
+  </si>
+  <si>
     <t>QuestGroup</t>
   </si>
   <si>
@@ -75,7 +85,27 @@
     <t>任务信息</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OpenNGS.Quest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.Common</t>
+    </r>
+  </si>
+  <si>
+    <t>Quest_Status</t>
   </si>
   <si>
     <t>Common</t>
@@ -84,19 +114,13 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>任务分类</t>
+    <t>任务状态</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>QUEST_STATUS</t>
-  </si>
-  <si>
-    <t>任务状态</t>
-  </si>
-  <si>
-    <t>QUEST_PICK_RULE</t>
+    <t>Quest_PickRule</t>
   </si>
   <si>
     <t>任务接取规则</t>
@@ -120,13 +144,16 @@
     <t>任务组存档</t>
   </si>
   <si>
+    <t>Quest_Category</t>
+  </si>
+  <si>
     <t>Tag</t>
   </si>
   <si>
     <t>Attributes</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY_CHAPTER</t>
+    <t>Chapter</t>
   </si>
   <si>
     <t>uint32</t>
@@ -138,79 +165,79 @@
     <t>Required</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY_SIDE</t>
+    <t>Side</t>
   </si>
   <si>
     <t>支线任务</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY_DAILY</t>
+    <t>Daily</t>
   </si>
   <si>
     <t>每日任务</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY_GUILD</t>
+    <t>Guild</t>
   </si>
   <si>
     <t>公会任务</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY_GLOBAL</t>
+    <t>Global</t>
   </si>
   <si>
     <t>全局任务</t>
   </si>
   <si>
-    <t>QUEST_STATUS_NONE</t>
+    <t>Status_None</t>
   </si>
   <si>
     <t>无效状态</t>
   </si>
   <si>
-    <t>QUEST_STATUS_AVAILABLE</t>
+    <t>Status_Available</t>
   </si>
   <si>
     <t>任务可接取</t>
   </si>
   <si>
-    <t>QUEST_STATUS_IN_PROGRESS</t>
+    <t>Status_Progress</t>
   </si>
   <si>
     <t>任务进行中</t>
   </si>
   <si>
-    <t>QUEST_STATUS_COMPLETED</t>
+    <t>Status_Completed</t>
   </si>
   <si>
     <t>任务已完成</t>
   </si>
   <si>
-    <t>QUEST_STATUS_FAILED</t>
+    <t>Status_Failed</t>
   </si>
   <si>
     <t>任务失败</t>
   </si>
   <si>
-    <t>QUEST_PICK_RULE_NONE</t>
+    <t>PickRule_None</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>QUEST_PICK_RULE_RANDOM</t>
+    <t>PickRule_Random</t>
   </si>
   <si>
     <t>权重随机接取</t>
   </si>
   <si>
-    <t>QUEST_PICK_RULE_ORDER</t>
+    <t>PickRule_Order</t>
   </si>
   <si>
     <t>顺序接取</t>
   </si>
   <si>
-    <t>QUEST_PICK_RULE_ALL</t>
+    <t>PickRule_All</t>
   </si>
   <si>
     <t>可以接取所有任务</t>
@@ -338,60 +365,36 @@
     <t>奖励系统ID</t>
   </si>
   <si>
+    <t>QuestDataList</t>
+  </si>
+  <si>
     <t>QuestData[]</t>
   </si>
   <si>
     <t>任务组任务集合</t>
   </si>
   <si>
-    <t>QuestList</t>
+    <t>QuestGroupList</t>
   </si>
   <si>
     <t>QuestGroupData[]</t>
   </si>
   <si>
     <t>任务数据列表</t>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.Quest.Data</t>
-  </si>
-  <si>
-    <t>OpenNGS.Quest.Data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OpenNGS.Quest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.Common</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,14 +422,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -441,46 +451,405 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF060607"/>
       <name val="Source Han Sans CN"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,11 +920,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -566,532 +1177,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
         <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Times New Roman"/>
-        <charset val="134"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1112,15 +1352,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1141,15 +1381,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1170,15 +1410,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1199,16 +1440,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1229,15 +1469,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1258,15 +1498,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1287,15 +1527,15 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1316,50 +1556,540 @@
     </dxf>
     <dxf>
       <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
         <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
       <alignment vertical="center"/>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.59999389629810485"/>
-          <bgColor rgb="FF000000" tint="0.59999389629810485"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.59999389629810485"/>
-          <bgColor rgb="FF000000" tint="0.59999389629810485"/>
+          <fgColor rgb="FF000000" tint="0.599993896298105"/>
+          <bgColor rgb="FF000000" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.599993896298105"/>
+          <bgColor rgb="FF000000" tint="0.599993896298105"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1371,7 +2101,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1383,13 +2113,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
@@ -1402,7 +2132,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1423,8 +2153,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
@@ -1439,159 +2169,141 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset4_Dark" pivot="0" count="7" xr9:uid="{A81DCE68-96CC-47DE-8847-DD6B0B4E8B69}">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
-      <tableStyleElement type="totalRow" dxfId="46"/>
-      <tableStyleElement type="firstColumn" dxfId="45"/>
-      <tableStyleElement type="lastColumn" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="totalRow" dxfId="43"/>
+      <tableStyleElement type="firstColumn" dxfId="42"/>
+      <tableStyleElement type="lastColumn" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:I9" totalsRowShown="0">
-  <autoFilter ref="A1:I9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:I8" totalsRowShown="0">
+  <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Group" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SK" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TableType" dataDxfId="33"/>
+    <tableColumn id="1" name="Package" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Group" dataDxfId="2"/>
+    <tableColumn id="4" name="Type" dataDxfId="3"/>
+    <tableColumn id="5" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" name="Scope" dataDxfId="5"/>
+    <tableColumn id="7" name="PK" dataDxfId="6"/>
+    <tableColumn id="8" name="SK" dataDxfId="7"/>
+    <tableColumn id="9" name="TableType" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="QUEST_CATEGORY" displayName="QUEST_CATEGORY" ref="A3:F8" totalsRowShown="0">
-  <autoFilter ref="A3:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Quest_Status" displayName="Quest_Status" ref="A11:F16" totalsRowShown="0">
+  <autoFilter ref="A11:F16"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tag" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Attributes" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Scope" dataDxfId="27"/>
+    <tableColumn id="1" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" name="Type" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" name="Tag" dataDxfId="12"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="13"/>
+    <tableColumn id="6" name="Scope" dataDxfId="14"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="QUEST_STATUS" displayName="QUEST_STATUS" ref="A11:F16" totalsRowShown="0">
-  <autoFilter ref="A11:F16" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Quest_PickRule" displayName="Quest_PickRule" ref="A19:F23" totalsRowShown="0">
+  <autoFilter ref="A19:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" name="Type" dataDxfId="16"/>
+    <tableColumn id="3" name="Description" dataDxfId="17"/>
+    <tableColumn id="4" name="Tag" dataDxfId="18"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="19"/>
+    <tableColumn id="6" name="Scope" dataDxfId="20"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="QUEST_PICK_RULE" displayName="QUEST_PICK_RULE" ref="A19:F23" totalsRowShown="0">
-  <autoFilter ref="A19:F23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quest" displayName="Quest" ref="A17:F28" totalsRowShown="0">
+  <autoFilter ref="A17:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Type" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tag" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attributes" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Scope" dataDxfId="21"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Quest" displayName="Quest" ref="A17:F28" totalsRowShown="0">
-  <autoFilter ref="A17:F28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QuestGroup" displayName="QuestGroup" ref="A3:F14" totalsRowShown="0">
+  <autoFilter ref="A3:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="QuestGroup" displayName="QuestGroup" ref="A3:F14" totalsRowShown="0">
-  <autoFilter ref="A3:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QuestContainer" displayName="QuestContainer" ref="A41:F42" totalsRowShown="0">
+  <autoFilter ref="A41:F42"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" name="Type" dataDxfId="22"/>
+    <tableColumn id="3" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" name="Tag" dataDxfId="24"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope" dataDxfId="25"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="QuestContainer" displayName="QuestContainer" ref="A41:F42" totalsRowShown="0">
-  <autoFilter ref="A41:F42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QuestData" displayName="QuestData" ref="A31:F33" totalsRowShown="0">
+  <autoFilter ref="A31:F33"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tag" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Scope" dataDxfId="16"/>
+    <tableColumn id="1" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" name="Type" dataDxfId="27"/>
+    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="4" name="Tag" dataDxfId="29"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="30"/>
+    <tableColumn id="6" name="Scope" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="QuestData" displayName="QuestData" ref="A31:F33" totalsRowShown="0">
-  <autoFilter ref="A31:F33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QuestGroupData" displayName="QuestGroupData" ref="A36:F38" totalsRowShown="0">
+  <autoFilter ref="A36:F38"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Type" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tag" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Attributes" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Scope" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="QuestGroupData" displayName="QuestGroupData" ref="A36:F38" totalsRowShown="0">
-  <autoFilter ref="A36:F38" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Type" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tag" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Attributes" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Scope" dataDxfId="4"/>
+    <tableColumn id="1" name="Name" dataDxfId="32"/>
+    <tableColumn id="2" name="Type" dataDxfId="33"/>
+    <tableColumn id="3" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" name="Tag" dataDxfId="35"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="36"/>
+    <tableColumn id="6" name="Scope" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1849,264 +2561,239 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="29" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.41666666666667" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.4140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.9140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.5833333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.41666666666667" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.91666666666667" style="6" customWidth="1"/>
     <col min="9" max="9" width="13" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.9140625" style="6"/>
+    <col min="10" max="16384" width="8.91666666666667" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="16.5" spans="1:9">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="17.25" spans="1:9">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="F2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="D4" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16">
-      <c r="A8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="D7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16">
-      <c r="A9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="F7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="D8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9" t="s">
-        <v>14</v>
+      <c r="F8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2114,520 +2801,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="46.9140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7.4140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.4140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="6" customWidth="1"/>
-    <col min="7" max="9" width="8.9140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="46.9166666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.58333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.41666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.4166666666667" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" style="6" customWidth="1"/>
+    <col min="7" max="9" width="8.91666666666667" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.9140625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.9140625" style="6"/>
+    <col min="11" max="11" width="8.91666666666667" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.91666666666667" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="1" ht="14.25" spans="1:7">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4">
+      <c r="B5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4">
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4">
+      <c r="B7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="18">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4">
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8" s="13"/>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4">
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4">
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4">
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="4">
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
+      <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="4">
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="4">
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4">
+      <c r="B22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
+      <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="4">
+      <c r="B23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:6">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D8">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D16">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D23">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <tableParts count="3">
+  <headerFooter/>
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="25.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2646,10 +3259,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -2657,58 +3270,58 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2716,143 +3329,143 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2865,7 +3478,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2884,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5</v>
@@ -2895,22 +3508,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2918,17 +3531,17 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2936,161 +3549,161 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4">
         <v>7</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4">
         <v>8</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>9</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
         <v>10</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4">
         <v>11</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3114,10 +3727,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3125,40 +3738,40 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3190,10 +3803,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>5</v>
@@ -3201,40 +3814,40 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3266,10 +3879,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>5</v>
@@ -3277,29 +3890,29 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D18:D28">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
   <si>
     <t>Package</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>奖励系统ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>完成数量</t>
+  </si>
+  <si>
+    <t>StatID</t>
+  </si>
+  <si>
+    <t>统计规则ID</t>
   </si>
   <si>
     <t>QuestDataList</t>
@@ -2188,7 +2200,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:I8" totalsRowShown="0">
-  <autoFilter ref="A1:I8"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Package" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2206,7 +2218,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Quest_Status" displayName="Quest_Status" ref="A11:F16" totalsRowShown="0">
-  <autoFilter ref="A11:F16"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A11:F16" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="9"/>
     <tableColumn id="2" name="Type" dataDxfId="10"/>
@@ -2221,7 +2233,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Quest_PickRule" displayName="Quest_PickRule" ref="A19:F23" totalsRowShown="0">
-  <autoFilter ref="A19:F23"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A19:F23" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="15"/>
     <tableColumn id="2" name="Type" dataDxfId="16"/>
@@ -2235,8 +2247,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quest" displayName="Quest" ref="A17:F28" totalsRowShown="0">
-  <autoFilter ref="A17:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quest" displayName="Quest" ref="A17:F30" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A17:F30" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -2251,7 +2263,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QuestGroup" displayName="QuestGroup" ref="A3:F14" totalsRowShown="0">
-  <autoFilter ref="A3:F14"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F14" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -2265,8 +2277,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QuestContainer" displayName="QuestContainer" ref="A41:F42" totalsRowShown="0">
-  <autoFilter ref="A41:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QuestContainer" displayName="QuestContainer" ref="A45:F46" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A45:F46" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="21"/>
     <tableColumn id="2" name="Type" dataDxfId="22"/>
@@ -2280,8 +2292,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QuestData" displayName="QuestData" ref="A31:F33" totalsRowShown="0">
-  <autoFilter ref="A31:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QuestData" displayName="QuestData" ref="A35:F37" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A35:F37" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="26"/>
     <tableColumn id="2" name="Type" dataDxfId="27"/>
@@ -2295,8 +2307,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QuestGroupData" displayName="QuestGroupData" ref="A36:F38" totalsRowShown="0">
-  <autoFilter ref="A36:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QuestGroupData" displayName="QuestGroupData" ref="A40:F42" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A40:F42" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="32"/>
     <tableColumn id="2" name="Type" dataDxfId="33"/>
@@ -2805,8 +2817,8 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2823,7 +2835,7 @@
     <col min="12" max="16384" width="8.91666666666667" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2832,7 +2844,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -2843,7 +2855,7 @@
       <c r="F2" s="7"/>
       <c r="G2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2876,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
@@ -2885,7 +2897,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
         <v>39</v>
       </c>
@@ -2904,7 +2916,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
@@ -2922,7 +2934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -2966,7 +2978,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -2976,7 +2988,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3034,7 +3046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -3096,7 +3108,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -3106,7 +3118,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:6">
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:6">
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
@@ -3200,7 +3212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:6">
+    <row r="24" spans="1:6">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -3222,10 +3234,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3706,76 +3718,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="4">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="4">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3783,75 +3765,75 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>5</v>
+      <c r="E36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3859,55 +3841,121 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>5</v>
+      <c r="E41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="3">
+      <c r="C42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D18:D28">
+  <conditionalFormatting sqref="D18:D32">
     <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Quest.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="4" r:id="rId1"/>
     <sheet name="OpenNGS.Quest.Common" sheetId="3" r:id="rId2"/>
     <sheet name="OpenNGS.Quest.Data" sheetId="2" r:id="rId3"/>
+    <sheet name="OpenNGS.Quest.Service" sheetId="5" r:id="rId4"/>
+    <sheet name="OpenNGS.Quest.DB" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="150">
   <si>
     <t>Package</t>
   </si>
@@ -37,9 +39,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -55,6 +54,9 @@
     <t>SK</t>
   </si>
   <si>
+    <t>Index</t>
+  </si>
+  <si>
     <t>TableType</t>
   </si>
   <si>
@@ -64,9 +66,6 @@
     <t>QuestGroup</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Struct</t>
   </si>
   <si>
@@ -85,32 +84,12 @@
     <t>任务信息</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OpenNGS.Quest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.Common</t>
-    </r>
+    <t>OpenNGS.Quest.Common</t>
   </si>
   <si>
     <t>Quest_Status</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>Enum</t>
   </si>
   <si>
@@ -135,16 +114,82 @@
     <t>QuestData</t>
   </si>
   <si>
-    <t>任务存档</t>
-  </si>
-  <si>
-    <t>QuestGroupData</t>
-  </si>
-  <si>
-    <t>任务组存档</t>
-  </si>
-  <si>
-    <t>Quest_Category</t>
+    <t>任务实例</t>
+  </si>
+  <si>
+    <t>OpenNGS.Quest.Service</t>
+  </si>
+  <si>
+    <t>GetQuestListReq</t>
+  </si>
+  <si>
+    <t>获得任务列表请求</t>
+  </si>
+  <si>
+    <t>CS;SS</t>
+  </si>
+  <si>
+    <t>GetQuestListRsp</t>
+  </si>
+  <si>
+    <t>获得任务列表响应</t>
+  </si>
+  <si>
+    <t>GetQuestRewardReq</t>
+  </si>
+  <si>
+    <t>获得任务奖励请求</t>
+  </si>
+  <si>
+    <t>GetQuestRewardRsp</t>
+  </si>
+  <si>
+    <t>获得任务奖励响应</t>
+  </si>
+  <si>
+    <t>GetQuestGroupRewardReq</t>
+  </si>
+  <si>
+    <t>获得任务组奖励请求</t>
+  </si>
+  <si>
+    <t>GetQuestGroupRewardRsp</t>
+  </si>
+  <si>
+    <t>获得任务组奖励相应</t>
+  </si>
+  <si>
+    <t>AddQuestRep</t>
+  </si>
+  <si>
+    <t>添加任务请求</t>
+  </si>
+  <si>
+    <t>AddQuestRsp</t>
+  </si>
+  <si>
+    <t>添加任务响应</t>
+  </si>
+  <si>
+    <t>RemoveQuestRep</t>
+  </si>
+  <si>
+    <t>移除任务请求</t>
+  </si>
+  <si>
+    <t>RemoveQuestRsp</t>
+  </si>
+  <si>
+    <t>移除任务相应</t>
+  </si>
+  <si>
+    <t>NiQuestService</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Ni任务服务</t>
   </si>
   <si>
     <t>Tag</t>
@@ -153,58 +198,22 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>Chapter</t>
+    <t>Status_None</t>
   </si>
   <si>
     <t>uint32</t>
   </si>
   <si>
-    <t>章节任务</t>
+    <t>无效状态</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
-    <t>Side</t>
-  </si>
-  <si>
-    <t>支线任务</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>每日任务</t>
-  </si>
-  <si>
-    <t>Guild</t>
-  </si>
-  <si>
-    <t>公会任务</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>全局任务</t>
-  </si>
-  <si>
-    <t>Status_None</t>
-  </si>
-  <si>
-    <t>无效状态</t>
-  </si>
-  <si>
-    <t>Status_Available</t>
-  </si>
-  <si>
-    <t>任务可接取</t>
-  </si>
-  <si>
-    <t>Status_Progress</t>
-  </si>
-  <si>
-    <t>任务进行中</t>
+    <t>Status_Accepted</t>
+  </si>
+  <si>
+    <t>已接取</t>
   </si>
   <si>
     <t>Status_Completed</t>
@@ -249,15 +258,6 @@
     <t>任务组ID</t>
   </si>
   <si>
-    <t>Quests</t>
-  </si>
-  <si>
-    <t>uint32[]</t>
-  </si>
-  <si>
-    <t>任务列表</t>
-  </si>
-  <si>
     <t>Tile</t>
   </si>
   <si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>分组类型</t>
+  </si>
+  <si>
+    <t>IsQuestHead</t>
+  </si>
+  <si>
+    <t>是否为起始任务组</t>
   </si>
   <si>
     <t>RelyOnGroupID</t>
@@ -323,6 +329,9 @@
     <t>废弃</t>
   </si>
   <si>
+    <t>GroupID</t>
+  </si>
+  <si>
     <t>QuestID</t>
   </si>
   <si>
@@ -344,13 +353,16 @@
     <t>任务的随机接取权重</t>
   </si>
   <si>
-    <t>IsQuestHead</t>
-  </si>
-  <si>
-    <t>是否起始任务</t>
-  </si>
-  <si>
-    <t>NextQuestID</t>
+    <t>StatID</t>
+  </si>
+  <si>
+    <t>统计规则ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>完成数量</t>
   </si>
   <si>
     <t>isHidden</t>
@@ -359,40 +371,124 @@
     <t>是否为隐藏任务</t>
   </si>
   <si>
+    <t>奖励系统ID</t>
+  </si>
+  <si>
+    <t>Uid</t>
+  </si>
+  <si>
+    <t>任务唯一ID</t>
+  </si>
+  <si>
+    <t>统计ID</t>
+  </si>
+  <si>
+    <t>CurVal</t>
+  </si>
+  <si>
+    <t>当前进度</t>
+  </si>
+  <si>
+    <t>AcceptTime</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>接取时间</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>奖励系统ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>完成数量</t>
-  </si>
-  <si>
-    <t>StatID</t>
-  </si>
-  <si>
-    <t>统计规则ID</t>
-  </si>
-  <si>
-    <t>QuestDataList</t>
+    <t>QuestList</t>
   </si>
   <si>
     <t>QuestData[]</t>
   </si>
   <si>
-    <t>任务组任务集合</t>
-  </si>
-  <si>
-    <t>QuestGroupList</t>
-  </si>
-  <si>
-    <t>QuestGroupData[]</t>
-  </si>
-  <si>
     <t>任务数据列表</t>
+  </si>
+  <si>
+    <t>获得任务列表</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>quests</t>
+  </si>
+  <si>
+    <t>任务列表</t>
+  </si>
+  <si>
+    <t>领取任务奖励</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>rewardID</t>
+  </si>
+  <si>
+    <t>领取任务组奖励</t>
+  </si>
+  <si>
+    <t>groupID</t>
+  </si>
+  <si>
+    <t>接取任务</t>
+  </si>
+  <si>
+    <t>移除任务</t>
+  </si>
+  <si>
+    <t>MethodName</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>GetQuestList</t>
+  </si>
+  <si>
+    <t>GetQuestReward</t>
+  </si>
+  <si>
+    <t>获得任务奖励</t>
+  </si>
+  <si>
+    <t>GetQuestGroupReward</t>
+  </si>
+  <si>
+    <t>获得任务组奖励</t>
+  </si>
+  <si>
+    <t>AddQuest</t>
+  </si>
+  <si>
+    <t>RemoveQuest</t>
+  </si>
+  <si>
+    <t>QuestNode</t>
+  </si>
+  <si>
+    <t>CharacterQuest</t>
+  </si>
+  <si>
+    <t>PlayerUid</t>
+  </si>
+  <si>
+    <t>角色唯一ID</t>
+  </si>
+  <si>
+    <t>QuestNodes</t>
+  </si>
+  <si>
+    <t>QuestNode[]</t>
   </si>
 </sst>
 </file>
@@ -406,18 +502,13 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -431,6 +522,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -438,16 +553,9 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -457,9 +565,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -622,14 +730,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor theme="0" tint="-0.349986266670736"/>
       </patternFill>
     </fill>
     <fill>
@@ -828,43 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -884,6 +955,67 @@
       </right>
       <top/>
       <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -909,26 +1041,6 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1048,137 +1160,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1186,73 +1298,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1305,17 +1434,17 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="53">
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1335,14 +1464,14 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1364,14 +1493,14 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1393,36 +1522,7 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-        <family val="1"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
         <family val="1"/>
@@ -1430,7 +1530,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1452,14 +1552,14 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1481,14 +1581,14 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1510,14 +1610,14 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1539,14 +1639,21 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="1"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1973,108 +2080,6 @@
     </dxf>
     <dxf>
       <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2082,6 +2087,349 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.349986266670736"/>
+          <bgColor theme="0" tint="-0.349986266670736"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2181,13 +2529,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset4_Dark" pivot="0" count="7" xr9:uid="{A81DCE68-96CC-47DE-8847-DD6B0B4E8B69}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="totalRow" dxfId="43"/>
-      <tableStyleElement type="firstColumn" dxfId="42"/>
-      <tableStyleElement type="lastColumn" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="totalRow" dxfId="50"/>
+      <tableStyleElement type="firstColumn" dxfId="49"/>
+      <tableStyleElement type="lastColumn" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2199,26 +2547,176 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:I8" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I8" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:I18" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I18" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Package" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" name="Group" dataDxfId="2"/>
-    <tableColumn id="4" name="Type" dataDxfId="3"/>
-    <tableColumn id="5" name="Description" dataDxfId="4"/>
-    <tableColumn id="6" name="Scope" dataDxfId="5"/>
-    <tableColumn id="7" name="PK" dataDxfId="6"/>
-    <tableColumn id="8" name="SK" dataDxfId="7"/>
+    <tableColumn id="4" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" name="Scope" dataDxfId="4"/>
+    <tableColumn id="7" name="PK" dataDxfId="5"/>
+    <tableColumn id="8" name="SK" dataDxfId="6"/>
+    <tableColumn id="3" name="Index" dataDxfId="7"/>
     <tableColumn id="9" name="TableType" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="GetQuestRewardReq" displayName="GetQuestRewardReq" ref="A12:F13" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:F13" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="GetQuestRewardRsp" displayName="GetQuestRewardRsp" ref="A16:F17" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A16:F17" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="GetQuestGroupRewardReq" displayName="GetQuestGroupRewardReq" ref="A22:F23" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A22:F23" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type" dataDxfId="33"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="GetQuestGroupRewardRsp" displayName="GetQuestGroupRewardRsp" ref="A26:F27" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A26:F27" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="AddQuestRep" displayName="AddQuestRep" ref="A32:F33" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A32:F33" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="AddQuestRsp" displayName="AddQuestRsp" ref="A36:F37" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A36:F37" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="NiQuestService" displayName="NiQuestService" ref="A50:F55" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A50:F55" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="MethodName" dataDxfId="34"/>
+    <tableColumn id="2" name="Description" dataDxfId="35"/>
+    <tableColumn id="3" name="Inputs" dataDxfId="36"/>
+    <tableColumn id="4" name="Return" dataDxfId="37"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="38"/>
+    <tableColumn id="6" name="Scope" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="RemoveQuestRep" displayName="RemoveQuestRep" ref="A41:F42" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A41:F42" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="RemoveQuestRsp" displayName="RemoveQuestRsp" ref="A45:F46" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A45:F46" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QuestNode" displayName="QuestNode" ref="A3:F10" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F10" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Quest_Status" displayName="Quest_Status" ref="A11:F16" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A11:F16" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Quest_Status" displayName="Quest_Status" ref="A3:F7" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F7" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="9"/>
     <tableColumn id="2" name="Type" dataDxfId="10"/>
@@ -2231,9 +2729,24 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="CharacterQuest" displayName="CharacterQuest" ref="A15:F17" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A15:F17" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" name="Type" dataDxfId="41"/>
+    <tableColumn id="3" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" name="Tag" dataDxfId="43"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="44"/>
+    <tableColumn id="6" name="Scope" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Quest_PickRule" displayName="Quest_PickRule" ref="A19:F23" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A19:F23" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Quest_PickRule" displayName="Quest_PickRule" ref="A10:F14" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A10:F14" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="15"/>
     <tableColumn id="2" name="Type" dataDxfId="16"/>
@@ -2247,8 +2760,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quest" displayName="Quest" ref="A17:F30" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A17:F30" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quest" displayName="Quest" ref="A17:F28" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A17:F28" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -2277,8 +2790,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QuestContainer" displayName="QuestContainer" ref="A45:F46" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A45:F46" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QuestContainer" displayName="QuestContainer" ref="A43:F44" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A43:F44" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="21"/>
     <tableColumn id="2" name="Type" dataDxfId="22"/>
@@ -2292,8 +2805,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QuestData" displayName="QuestData" ref="A35:F37" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A35:F37" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QuestData" displayName="QuestData" ref="A32:F39" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A32:F39" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="26"/>
     <tableColumn id="2" name="Type" dataDxfId="27"/>
@@ -2307,17 +2820,32 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QuestGroupData" displayName="QuestGroupData" ref="A40:F42" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A40:F42" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="GetQuestListReq" displayName="GetQuestListReq" ref="A2:F3" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:F3" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="32"/>
-    <tableColumn id="2" name="Type" dataDxfId="33"/>
-    <tableColumn id="3" name="Description" dataDxfId="34"/>
-    <tableColumn id="4" name="Tag" dataDxfId="35"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="36"/>
-    <tableColumn id="6" name="Scope" dataDxfId="37"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
-  <tableStyleInfo name="TableStylePreset4_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="GetQuestListRsp" displayName="GetQuestListRsp" ref="A6:F7" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A6:F7" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2579,227 +3107,442 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.41666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5833333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.41666666666667" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.91666666666667" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.91666666666667" style="6"/>
+    <col min="1" max="1" width="29" style="23" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="23" customWidth="1"/>
+    <col min="5" max="5" width="8.41666666666667" style="23" customWidth="1"/>
+    <col min="6" max="7" width="8.91666666666667" style="23" customWidth="1"/>
+    <col min="8" max="9" width="13" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="8.91666666666667" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
-      <c r="A1" s="21" t="s">
+    <row r="1" ht="18.75" spans="1:9">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="23" t="s">
+      <c r="C3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="D6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
-      <c r="A4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="23" t="s">
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:9">
-      <c r="A5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="23" t="s">
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:9">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="23" t="s">
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:9">
-      <c r="A7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="D10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="B11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:9">
-      <c r="A8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="D11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="23" t="s">
-        <v>15</v>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="32" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2815,24 +3558,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="46.9166666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.58333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7.41666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.4166666666667" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" style="6" customWidth="1"/>
-    <col min="7" max="9" width="8.91666666666667" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.91666666666667" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.91666666666667" style="6"/>
+    <col min="1" max="1" width="46.9166666666667" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.58333333333333" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" style="23" customWidth="1"/>
+    <col min="4" max="4" width="7.41666666666667" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13.4166666666667" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" style="23" customWidth="1"/>
+    <col min="7" max="9" width="8.91666666666667" style="23" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.91666666666667" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="8.91666666666667" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2844,381 +3587,229 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="14">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="25">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="E4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="A6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="25">
         <v>3</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3234,10 +3825,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3251,722 +3842,1571 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="3">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="21">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="21">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="21">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="21">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="21">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="21">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="21">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="21">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="21">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="3">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="4">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="4">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="4">
-        <v>12</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="4">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="3">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="5">
-        <v>2</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>14</v>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D18:D32">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+  <conditionalFormatting sqref="D19:D29">
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="5">
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:6">
+      <c r="A50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" spans="1:6">
+      <c r="A51" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" spans="1:6">
+      <c r="A52" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:6">
+      <c r="A53" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:6">
+      <c r="A54" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:6">
+      <c r="A55" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="13.2583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>